--- a/dataset/final_dataset.xlsx
+++ b/dataset/final_dataset.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K503"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="H4" t="n">
         <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7250155136064604</v>
+        <v>0.2958554049477018</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1.49</v>
+        <v>1.515</v>
       </c>
       <c r="H114" t="n">
         <v>20</v>
@@ -10080,10 +10080,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.636</v>
+        <v>0.6920000000000001</v>
       </c>
       <c r="C261" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
         <v>46.2</v>
@@ -11242,7 +11242,7 @@
         <v>4</v>
       </c>
       <c r="G292" t="n">
-        <v>35.223</v>
+        <v>37.654</v>
       </c>
       <c r="H292" t="n">
         <v>25</v>
@@ -11285,7 +11285,7 @@
         <v>25</v>
       </c>
       <c r="I293" t="n">
-        <v>1.8636</v>
+        <v>2.551985487263379</v>
       </c>
       <c r="J293" t="n">
         <v>0</v>
@@ -18987,72 +18987,6 @@
         <v>0</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>ZION</t>
-        </is>
-      </c>
-      <c r="B502" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="C502" t="n">
-        <v>0</v>
-      </c>
-      <c r="D502" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="E502" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
-      <c r="H502" t="n">
-        <v>22</v>
-      </c>
-      <c r="I502" t="n">
-        <v>0.07331196322824432</v>
-      </c>
-      <c r="J502" t="n">
-        <v>1</v>
-      </c>
-      <c r="K502" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>ZTS</t>
-        </is>
-      </c>
-      <c r="B503" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="C503" t="n">
-        <v>0</v>
-      </c>
-      <c r="D503" t="n">
-        <v>13</v>
-      </c>
-      <c r="E503" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
-      <c r="H503" t="n">
-        <v>23</v>
-      </c>
-      <c r="I503" t="n">
-        <v>6.33262598348033</v>
-      </c>
-      <c r="J503" t="n">
-        <v>0</v>
-      </c>
-      <c r="K503" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataset/final_dataset.xlsx
+++ b/dataset/final_dataset.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>genderratio</t>
+          <t>Gender Ratio</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>nationalitymix</t>
+          <t>Minority Ratio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>voting_power</t>
+          <t>VotePower</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>percentage_INEDs</t>
+          <t>%INEDS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>num_directors_&gt;4.5</t>
+          <t>Number Directors'Own&gt;4.5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>total_share_%</t>
+          <t>Board Ownership</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>boardsize</t>
+          <t>Board Size</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,12 +481,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>CEODuality</t>
+          <t>CEO Dual</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>dualclass</t>
+          <t>Dualclass Voting</t>
         </is>
       </c>
     </row>
@@ -10080,10 +10080,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.6920000000000001</v>
+        <v>0.636</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D261" t="n">
         <v>46.2</v>
